--- a/results-store-4.xlsx
+++ b/results-store-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofsussex-my.sharepoint.com/personal/eh555_sussex_ac_uk/Documents/Documents/2-Proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{E0821435-1A0C-4BEF-B547-C1B8D28E4E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B1E7D04-4400-47D3-B25A-85EBF6680529}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{E0821435-1A0C-4BEF-B547-C1B8D28E4E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA02BDA7-3E97-4EE0-93EC-9C85E1986683}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="465" windowWidth="28650" windowHeight="14550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28440" yWindow="345" windowWidth="28650" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train_per_model" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="test_per_K" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="114">
   <si>
     <t>layers</t>
   </si>
@@ -396,6 +397,9 @@
   </si>
   <si>
     <t>Rerun with chosen best model (2, lowest val loss) and with latest version of code</t>
+  </si>
+  <si>
+    <t>Run with Laptop, using proc.time()</t>
   </si>
 </sst>
 </file>
@@ -801,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1214"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:P113"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4530,6 +4534,9 @@
       <c r="O114" s="2"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G115"/>
       <c r="H115"/>
       <c r="I115"/>
@@ -4541,26 +4548,104 @@
       <c r="O115" s="2"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>4</v>
+      </c>
+      <c r="H116" t="s">
+        <v>5</v>
+      </c>
+      <c r="I116" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P116" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>708393.75</v>
+      </c>
+      <c r="F117">
+        <v>0.3</v>
+      </c>
+      <c r="G117">
+        <v>0.17240415996754399</v>
+      </c>
+      <c r="H117">
+        <v>2.94472648162844</v>
+      </c>
+      <c r="I117">
+        <v>0.97856729957920796</v>
+      </c>
+      <c r="J117" s="3">
+        <v>415.57999999999902</v>
+      </c>
+      <c r="K117" s="3">
+        <v>11.9674999999999</v>
+      </c>
+      <c r="L117" s="2">
+        <v>1.50881143053993E-3</v>
+      </c>
+      <c r="M117" s="2">
+        <v>1.5326097052930599E-3</v>
+      </c>
+      <c r="N117" s="2">
+        <v>2.7157210511296601E-5</v>
+      </c>
+      <c r="O117" s="2">
+        <v>1.5228556556462499E-5</v>
+      </c>
+      <c r="P117" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G118"/>
@@ -16638,10 +16723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N251"/>
+  <dimension ref="A1:N258"/>
   <sheetViews>
     <sheetView topLeftCell="A232" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247:N251"/>
+      <selection activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25925,6 +26010,231 @@
         <v>60</v>
       </c>
     </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" t="s">
+        <v>2</v>
+      </c>
+      <c r="E254" t="s">
+        <v>3</v>
+      </c>
+      <c r="F254" t="s">
+        <v>4</v>
+      </c>
+      <c r="G254" t="s">
+        <v>5</v>
+      </c>
+      <c r="H254" t="s">
+        <v>6</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L254" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M254" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N254" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>708848</v>
+      </c>
+      <c r="E255">
+        <v>0.3</v>
+      </c>
+      <c r="F255">
+        <v>0.31587161533049202</v>
+      </c>
+      <c r="G255">
+        <v>2.9808587033601999</v>
+      </c>
+      <c r="H255">
+        <v>0.97797845265572303</v>
+      </c>
+      <c r="I255" s="3">
+        <v>97.93</v>
+      </c>
+      <c r="J255" s="3">
+        <v>11.439999999999801</v>
+      </c>
+      <c r="K255" s="2">
+        <v>1.5167563688009899E-3</v>
+      </c>
+      <c r="L255" s="2">
+        <v>1.5312542996458599E-3</v>
+      </c>
+      <c r="M255" s="2">
+        <v>2.9880195427759199E-5</v>
+      </c>
+      <c r="N255" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>708156</v>
+      </c>
+      <c r="E256">
+        <v>0.3</v>
+      </c>
+      <c r="F256">
+        <v>0.22739616415896599</v>
+      </c>
+      <c r="G256">
+        <v>3.2122367809082299</v>
+      </c>
+      <c r="H256">
+        <v>0.97943056886576096</v>
+      </c>
+      <c r="I256" s="3">
+        <v>102.25</v>
+      </c>
+      <c r="J256" s="3">
+        <v>12.299999999999899</v>
+      </c>
+      <c r="K256" s="2">
+        <v>1.52498565148562E-3</v>
+      </c>
+      <c r="L256" s="2">
+        <v>1.5428252896212899E-3</v>
+      </c>
+      <c r="M256" s="2">
+        <v>3.3013381050061198E-5</v>
+      </c>
+      <c r="N256" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>707833</v>
+      </c>
+      <c r="E257">
+        <v>0.3</v>
+      </c>
+      <c r="F257">
+        <v>0.20829657659825099</v>
+      </c>
+      <c r="G257">
+        <v>2.7873320152771801</v>
+      </c>
+      <c r="H257">
+        <v>0.97855659076044099</v>
+      </c>
+      <c r="I257" s="3">
+        <v>106.02999999999901</v>
+      </c>
+      <c r="J257" s="3">
+        <v>12.6099999999999</v>
+      </c>
+      <c r="K257" s="2">
+        <v>1.4994450611993601E-3</v>
+      </c>
+      <c r="L257" s="2">
+        <v>1.5343258263324101E-3</v>
+      </c>
+      <c r="M257" s="2">
+        <v>3.0506709010903599E-5</v>
+      </c>
+      <c r="N257" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>4</v>
+      </c>
+      <c r="D258">
+        <v>708738</v>
+      </c>
+      <c r="E258">
+        <v>0.3</v>
+      </c>
+      <c r="F258">
+        <v>-6.1947716217531097E-2</v>
+      </c>
+      <c r="G258">
+        <v>2.7984784269681602</v>
+      </c>
+      <c r="H258">
+        <v>0.97830358603490497</v>
+      </c>
+      <c r="I258" s="3">
+        <v>109.369999999999</v>
+      </c>
+      <c r="J258" s="3">
+        <v>11.5199999999999</v>
+      </c>
+      <c r="K258" s="2">
+        <v>1.4940586406737501E-3</v>
+      </c>
+      <c r="L258" s="2">
+        <v>1.5220334055726799E-3</v>
+      </c>
+      <c r="M258" s="2">
+        <v>1.5228556556462499E-5</v>
+      </c>
+      <c r="N258" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25933,10 +26243,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149088EA-EE89-4913-8BD8-AB9DFE4F2867}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26947,6 +27257,111 @@
         <v>60</v>
       </c>
     </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>59534</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1.5228556556462499E-5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>415.57999999999902</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-0.107542498692534</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.30370088681840002</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.9996878063372</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1.41893745223661E-5</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.85900000000001397</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0.35407645339687799</v>
+      </c>
+      <c r="N44" s="5">
+        <v>1.3021556095167099</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.94807915611983296</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26955,10 +27370,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA7905-EEB3-4C3A-B027-599D0122CD07}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:Q58"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28978,6 +29393,223 @@
         <v>60</v>
       </c>
     </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>59534</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1.5228556556462499E-5</v>
+      </c>
+      <c r="H62" s="6">
+        <v>415.57999999999902</v>
+      </c>
+      <c r="I62" s="4">
+        <v>-0.107542498692534</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0.30370088681840002</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0.9996878063372</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1.41893745223661E-5</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0.85900000000001397</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0.41386039372997002</v>
+      </c>
+      <c r="O62" s="5">
+        <v>1.35528480124844</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0.941424407518477</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>59534</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1.5228556556462499E-5</v>
+      </c>
+      <c r="H63" s="6">
+        <v>415.57999999999902</v>
+      </c>
+      <c r="I63" s="4">
+        <v>-0.107542498692534</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0.30370088681840002</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0.9996878063372</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1.41893745223661E-5</v>
+      </c>
+      <c r="M63" s="5">
+        <v>0.85900000000001397</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0.365434857858214</v>
+      </c>
+      <c r="O63" s="5">
+        <v>1.2328455356099699</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0.86741067775175895</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>59534</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1.5228556556462499E-5</v>
+      </c>
+      <c r="H64" s="6">
+        <v>415.57999999999902</v>
+      </c>
+      <c r="I64" s="4">
+        <v>-0.107542498692534</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0.30370088681840002</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0.9996878063372</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1.41893745223661E-5</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0.85900000000001397</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0.28293410860245</v>
+      </c>
+      <c r="O64" s="5">
+        <v>1.31833649169171</v>
+      </c>
+      <c r="P64" s="5">
+        <v>1.03540238308926</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
